--- a/Knowledge Graph with class colours.xlsx
+++ b/Knowledge Graph with class colours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniaschmitzer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE492A-6B27-4987-8D16-C00FA47D6D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EED1F84-95A2-814D-8D69-E33E7CFC5F88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{A2BD553B-FD1F-424C-9EB9-7E8411934F8C}"/>
+    <workbookView xWindow="1760" yWindow="2620" windowWidth="22780" windowHeight="14660" xr2:uid="{A2BD553B-FD1F-424C-9EB9-7E8411934F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,6 +388,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFED4B6E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -443,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -480,7 +495,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -489,9 +503,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,7 +744,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>256342</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>46318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -990,8 +1006,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>713437</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>61</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>179355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1034,8 +1050,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>124884</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>11288</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>190583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1079,7 +1095,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>354500</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>189518</xdr:rowOff>
+      <xdr:rowOff>159636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16691,23 +16707,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>604488</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>23219</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>35219</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>5756</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Grafik 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D2FCF6-1A59-4DBB-99CD-675168ED6E80}"/>
+        <xdr:cNvPr id="20" name="Grafik 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2572C1-3F4A-544E-A565-0D1C78D3962B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16716,21 +16732,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30247125" y="16979812"/>
-          <a:ext cx="3547764" cy="3122647"/>
+          <a:off x="30721300" y="16446500"/>
+          <a:ext cx="2946400" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16743,7 +16753,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17041,20 +17051,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD49DFD-9FFC-044D-B373-519953A72F2B}">
   <dimension ref="I5:BA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="30" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AY78" sqref="AY78"/>
+    <sheetView tabSelected="1" topLeftCell="AE71" zoomScale="108" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AQ76" sqref="AQ76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="42" max="42" width="9.33203125" customWidth="1"/>
     <col min="43" max="43" width="24.5" customWidth="1"/>
-    <col min="44" max="44" width="16.9140625" customWidth="1"/>
-    <col min="50" max="50" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.83203125" customWidth="1"/>
+    <col min="50" max="50" width="31.5" customWidth="1"/>
+    <col min="51" max="51" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="5" ht="17.25" customHeight="1"/>
+    <row r="22" spans="9:47">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -17095,7 +17106,7 @@
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
     </row>
-    <row r="23" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:47">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -17136,7 +17147,7 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
     </row>
-    <row r="24" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:47">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -17177,7 +17188,7 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
     </row>
-    <row r="25" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:47">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -17218,7 +17229,7 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:47">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -17259,7 +17270,7 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
     </row>
-    <row r="27" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:47">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -17300,7 +17311,7 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
     </row>
-    <row r="28" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:47">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -17341,7 +17352,7 @@
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
     </row>
-    <row r="29" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:47">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -17382,7 +17393,7 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
     </row>
-    <row r="30" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:47">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -17423,7 +17434,7 @@
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
     </row>
-    <row r="31" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:47">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -17464,7 +17475,7 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
     </row>
-    <row r="32" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:47">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -17505,7 +17516,7 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
     </row>
-    <row r="33" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:47">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -17546,7 +17557,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
     </row>
-    <row r="34" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:47">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -17587,7 +17598,7 @@
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
     </row>
-    <row r="35" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:47">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -17628,7 +17639,7 @@
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
     </row>
-    <row r="36" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:47">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -17669,7 +17680,7 @@
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
     </row>
-    <row r="37" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:47">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -17710,7 +17721,7 @@
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
     </row>
-    <row r="38" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:47">
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -17751,7 +17762,7 @@
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
     </row>
-    <row r="39" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:47">
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -17792,7 +17803,7 @@
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
     </row>
-    <row r="40" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:47">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -17833,7 +17844,7 @@
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
     </row>
-    <row r="41" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:47">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -17874,7 +17885,7 @@
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
     </row>
-    <row r="42" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:47">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -17915,7 +17926,7 @@
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
     </row>
-    <row r="43" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:47">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -17956,7 +17967,7 @@
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
     </row>
-    <row r="44" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:47">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -17997,7 +18008,7 @@
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
     </row>
-    <row r="45" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:47">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -18038,7 +18049,7 @@
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
     </row>
-    <row r="46" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:47">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -18079,7 +18090,7 @@
       <c r="AT46" s="1"/>
       <c r="AU46" s="1"/>
     </row>
-    <row r="47" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:47">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -18120,7 +18131,7 @@
       <c r="AT47" s="1"/>
       <c r="AU47" s="1"/>
     </row>
-    <row r="48" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:47">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -18161,7 +18172,7 @@
       <c r="AT48" s="1"/>
       <c r="AU48" s="1"/>
     </row>
-    <row r="49" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:47">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -18202,7 +18213,7 @@
       <c r="AT49" s="1"/>
       <c r="AU49" s="1"/>
     </row>
-    <row r="50" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:47">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -18243,7 +18254,7 @@
       <c r="AT50" s="1"/>
       <c r="AU50" s="1"/>
     </row>
-    <row r="51" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:47">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -18284,7 +18295,7 @@
       <c r="AT51" s="1"/>
       <c r="AU51" s="1"/>
     </row>
-    <row r="52" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:47">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -18325,7 +18336,7 @@
       <c r="AT52" s="1"/>
       <c r="AU52" s="1"/>
     </row>
-    <row r="53" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:47">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -18366,7 +18377,7 @@
       <c r="AT53" s="1"/>
       <c r="AU53" s="1"/>
     </row>
-    <row r="54" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:47">
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -18407,7 +18418,7 @@
       <c r="AT54" s="1"/>
       <c r="AU54" s="1"/>
     </row>
-    <row r="55" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:47">
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -18448,7 +18459,7 @@
       <c r="AT55" s="1"/>
       <c r="AU55" s="1"/>
     </row>
-    <row r="56" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:47">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -18489,7 +18500,7 @@
       <c r="AT56" s="1"/>
       <c r="AU56" s="1"/>
     </row>
-    <row r="57" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:47">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -18530,7 +18541,7 @@
       <c r="AT57" s="1"/>
       <c r="AU57" s="1"/>
     </row>
-    <row r="58" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:47">
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -18571,7 +18582,7 @@
       <c r="AT58" s="1"/>
       <c r="AU58" s="1"/>
     </row>
-    <row r="59" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:47">
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -18612,7 +18623,7 @@
       <c r="AT59" s="1"/>
       <c r="AU59" s="1"/>
     </row>
-    <row r="60" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:47">
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -18653,7 +18664,7 @@
       <c r="AT60" s="1"/>
       <c r="AU60" s="1"/>
     </row>
-    <row r="61" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:47">
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -18694,7 +18705,7 @@
       <c r="AT61" s="1"/>
       <c r="AU61" s="1"/>
     </row>
-    <row r="62" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:47">
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -18735,7 +18746,7 @@
       <c r="AT62" s="1"/>
       <c r="AU62" s="1"/>
     </row>
-    <row r="63" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:47">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -18776,7 +18787,7 @@
       <c r="AT63" s="1"/>
       <c r="AU63" s="1"/>
     </row>
-    <row r="64" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:47">
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -18817,7 +18828,7 @@
       <c r="AT64" s="1"/>
       <c r="AU64" s="1"/>
     </row>
-    <row r="65" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:47">
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -18858,7 +18869,7 @@
       <c r="AT65" s="1"/>
       <c r="AU65" s="1"/>
     </row>
-    <row r="66" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:47">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -18899,7 +18910,7 @@
       <c r="AT66" s="1"/>
       <c r="AU66" s="1"/>
     </row>
-    <row r="67" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:47">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -18940,7 +18951,7 @@
       <c r="AT67" s="1"/>
       <c r="AU67" s="1"/>
     </row>
-    <row r="68" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:47">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -18981,7 +18992,7 @@
       <c r="AT68" s="1"/>
       <c r="AU68" s="1"/>
     </row>
-    <row r="69" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:47">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -19022,7 +19033,7 @@
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
     </row>
-    <row r="70" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:47">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -19063,7 +19074,7 @@
       <c r="AT70" s="1"/>
       <c r="AU70" s="1"/>
     </row>
-    <row r="71" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:47">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -19104,7 +19115,7 @@
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
     </row>
-    <row r="72" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:47">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -19145,7 +19156,7 @@
       <c r="AT72" s="1"/>
       <c r="AU72" s="1"/>
     </row>
-    <row r="73" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:47">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -19186,7 +19197,7 @@
       <c r="AT73" s="1"/>
       <c r="AU73" s="1"/>
     </row>
-    <row r="74" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:47">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -19227,7 +19238,7 @@
       <c r="AT74" s="1"/>
       <c r="AU74" s="1"/>
     </row>
-    <row r="75" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:47">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -19268,7 +19279,7 @@
       <c r="AT75" s="1"/>
       <c r="AU75" s="1"/>
     </row>
-    <row r="76" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:47">
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -19309,7 +19320,7 @@
       <c r="AT76" s="1"/>
       <c r="AU76" s="1"/>
     </row>
-    <row r="77" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:47">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -19350,7 +19361,7 @@
       <c r="AT77" s="1"/>
       <c r="AU77" s="1"/>
     </row>
-    <row r="78" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:47">
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -19391,7 +19402,7 @@
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
     </row>
-    <row r="79" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:47">
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -19432,7 +19443,7 @@
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
     </row>
-    <row r="80" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:47">
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -19473,7 +19484,7 @@
       <c r="AT80" s="1"/>
       <c r="AU80" s="1"/>
     </row>
-    <row r="81" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:53">
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -19514,7 +19525,7 @@
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
     </row>
-    <row r="82" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:53">
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -19563,7 +19574,7 @@
       <c r="AZ82" s="2"/>
       <c r="BA82" s="2"/>
     </row>
-    <row r="83" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:53">
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -19612,7 +19623,7 @@
       <c r="AZ83" s="2"/>
       <c r="BA83" s="2"/>
     </row>
-    <row r="84" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:53">
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -19661,7 +19672,7 @@
       <c r="AZ84" s="2"/>
       <c r="BA84" s="2"/>
     </row>
-    <row r="85" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:53">
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -19710,7 +19721,7 @@
       <c r="AZ85" s="2"/>
       <c r="BA85" s="2"/>
     </row>
-    <row r="86" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:53">
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -19759,7 +19770,7 @@
       <c r="AZ86" s="2"/>
       <c r="BA86" s="2"/>
     </row>
-    <row r="87" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:53">
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -19808,7 +19819,7 @@
       <c r="AZ87" s="2"/>
       <c r="BA87" s="2"/>
     </row>
-    <row r="88" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:53">
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -19857,7 +19868,7 @@
       <c r="AZ88" s="2"/>
       <c r="BA88" s="2"/>
     </row>
-    <row r="89" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:53" ht="19">
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -19901,12 +19912,12 @@
       <c r="AS89" s="1"/>
       <c r="AT89" s="1"/>
       <c r="AU89" s="1"/>
-      <c r="AX89" s="2"/>
-      <c r="AY89" s="36"/>
+      <c r="AX89" s="44"/>
+      <c r="AY89" s="45"/>
       <c r="AZ89" s="2"/>
       <c r="BA89" s="2"/>
     </row>
-    <row r="90" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:53">
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -19951,11 +19962,11 @@
       <c r="AT90" s="1"/>
       <c r="AU90" s="1"/>
       <c r="AX90" s="2"/>
-      <c r="AY90" s="37"/>
+      <c r="AY90" s="36"/>
       <c r="AZ90" s="2"/>
       <c r="BA90" s="2"/>
     </row>
-    <row r="91" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:53">
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -20000,11 +20011,11 @@
       <c r="AT91" s="1"/>
       <c r="AU91" s="1"/>
       <c r="AX91" s="2"/>
-      <c r="AY91" s="38"/>
+      <c r="AY91" s="37"/>
       <c r="AZ91" s="2"/>
       <c r="BA91" s="2"/>
     </row>
-    <row r="92" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:53">
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -20049,11 +20060,11 @@
       <c r="AT92" s="1"/>
       <c r="AU92" s="1"/>
       <c r="AX92" s="2"/>
-      <c r="AY92" s="39"/>
+      <c r="AY92" s="38"/>
       <c r="AZ92" s="2"/>
       <c r="BA92" s="2"/>
     </row>
-    <row r="93" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="93" spans="9:53">
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -20098,11 +20109,11 @@
       <c r="AT93" s="1"/>
       <c r="AU93" s="1"/>
       <c r="AX93" s="2"/>
-      <c r="AY93" s="40"/>
+      <c r="AY93" s="39"/>
       <c r="AZ93" s="2"/>
       <c r="BA93" s="2"/>
     </row>
-    <row r="94" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="94" spans="9:53">
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -20147,11 +20158,11 @@
       <c r="AT94" s="1"/>
       <c r="AU94" s="1"/>
       <c r="AX94" s="2"/>
-      <c r="AY94" s="41"/>
+      <c r="AY94" s="40"/>
       <c r="AZ94" s="2"/>
       <c r="BA94" s="2"/>
     </row>
-    <row r="95" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="95" spans="9:53">
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -20195,11 +20206,11 @@
       <c r="AT95" s="1"/>
       <c r="AU95" s="1"/>
       <c r="AX95" s="2"/>
-      <c r="AY95" s="42"/>
+      <c r="AY95" s="41"/>
       <c r="AZ95" s="2"/>
       <c r="BA95" s="2"/>
     </row>
-    <row r="96" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="96" spans="9:53">
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -20244,11 +20255,11 @@
       <c r="AT96" s="1"/>
       <c r="AU96" s="1"/>
       <c r="AX96" s="2"/>
-      <c r="AY96" s="43"/>
+      <c r="AY96" s="42"/>
       <c r="AZ96" s="2"/>
       <c r="BA96" s="2"/>
     </row>
-    <row r="97" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:53">
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -20289,11 +20300,11 @@
       <c r="AT97" s="1"/>
       <c r="AU97" s="1"/>
       <c r="AX97" s="2"/>
-      <c r="AY97" s="44"/>
+      <c r="AY97" s="43"/>
       <c r="AZ97" s="2"/>
       <c r="BA97" s="2"/>
     </row>
-    <row r="98" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:53">
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -20338,7 +20349,7 @@
       <c r="AZ98" s="2"/>
       <c r="BA98" s="2"/>
     </row>
-    <row r="99" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:53">
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -20383,7 +20394,7 @@
       <c r="AZ99" s="2"/>
       <c r="BA99" s="2"/>
     </row>
-    <row r="100" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:53">
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -20428,7 +20439,7 @@
       <c r="AZ100" s="2"/>
       <c r="BA100" s="2"/>
     </row>
-    <row r="101" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:53">
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -20469,7 +20480,7 @@
       <c r="AT101" s="1"/>
       <c r="AU101" s="1"/>
     </row>
-    <row r="102" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:53">
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -20510,7 +20521,7 @@
       <c r="AT102" s="1"/>
       <c r="AU102" s="1"/>
     </row>
-    <row r="103" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:53">
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -20551,7 +20562,7 @@
       <c r="AT103" s="1"/>
       <c r="AU103" s="1"/>
     </row>
-    <row r="104" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:53">
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -20592,7 +20603,7 @@
       <c r="AT104" s="1"/>
       <c r="AU104" s="1"/>
     </row>
-    <row r="105" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:53">
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -20633,7 +20644,7 @@
       <c r="AT105" s="1"/>
       <c r="AU105" s="1"/>
     </row>
-    <row r="106" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:53">
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -20674,7 +20685,7 @@
       <c r="AT106" s="1"/>
       <c r="AU106" s="1"/>
     </row>
-    <row r="107" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:53">
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -20715,7 +20726,7 @@
       <c r="AT107" s="1"/>
       <c r="AU107" s="1"/>
     </row>
-    <row r="108" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:53">
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -20756,7 +20767,7 @@
       <c r="AT108" s="1"/>
       <c r="AU108" s="1"/>
     </row>
-    <row r="109" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="109" spans="9:53">
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -20797,7 +20808,7 @@
       <c r="AT109" s="1"/>
       <c r="AU109" s="1"/>
     </row>
-    <row r="110" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="110" spans="9:53">
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -20838,7 +20849,7 @@
       <c r="AT110" s="1"/>
       <c r="AU110" s="1"/>
     </row>
-    <row r="111" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="111" spans="9:53">
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -20879,7 +20890,7 @@
       <c r="AT111" s="1"/>
       <c r="AU111" s="1"/>
     </row>
-    <row r="112" spans="9:53" x14ac:dyDescent="0.35">
+    <row r="112" spans="9:53">
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -20920,7 +20931,7 @@
       <c r="AT112" s="1"/>
       <c r="AU112" s="1"/>
     </row>
-    <row r="113" spans="9:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="9:47">
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -20975,18 +20986,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3">
       <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
@@ -20994,7 +21005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -21002,7 +21013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3">
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -21010,7 +21021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
@@ -21018,7 +21029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3">
       <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
@@ -21026,7 +21037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3">
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
@@ -21034,7 +21045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3">
       <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
@@ -21042,7 +21053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3">
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
@@ -21050,7 +21061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3">
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
@@ -21058,7 +21069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3">
       <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
@@ -21066,7 +21077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3">
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
@@ -21074,7 +21085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3">
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
